--- a/SUEWSPrepare/Input/SUEWS_init.xlsx
+++ b/SUEWSPrepare/Input/SUEWS_init.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Example DO NOT CHANGE POSITION" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="Irrigation" sheetId="13" r:id="rId14"/>
     <sheet name="Water Use (Manual)" sheetId="14" r:id="rId15"/>
     <sheet name="Water Use (Automatic)" sheetId="15" r:id="rId16"/>
+    <sheet name="ESTM Coefficients" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t>First widget title</t>
   </si>
@@ -170,6 +171,15 @@
   </si>
   <si>
     <t>Second widget code SiteList index</t>
+  </si>
+  <si>
+    <t>SUEWS_ESTMCoefficients</t>
+  </si>
+  <si>
+    <t>SUEWS_ESTMCoefficients.txt</t>
+  </si>
+  <si>
+    <t>ESTM Coefficients (codes will be added to the final output according to file input not what is selected in this tab)</t>
   </si>
 </sst>
 </file>
@@ -605,7 +615,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,11 +844,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -885,6 +899,35 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>

--- a/SUEWSPrepare/Input/SUEWS_init.xlsx
+++ b/SUEWSPrepare/Input/SUEWS_init.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Example DO NOT CHANGE POSITION" sheetId="1" r:id="rId1"/>
     <sheet name="Paved" sheetId="2" r:id="rId2"/>
     <sheet name="Building" sheetId="3" r:id="rId3"/>
     <sheet name="Evergreen" sheetId="4" r:id="rId4"/>
-    <sheet name="Decidious" sheetId="5" r:id="rId5"/>
+    <sheet name="Deciduous" sheetId="5" r:id="rId5"/>
     <sheet name="Grass" sheetId="6" r:id="rId6"/>
     <sheet name="Bare Soil" sheetId="7" r:id="rId7"/>
     <sheet name="Water" sheetId="8" r:id="rId8"/>
@@ -83,9 +83,6 @@
     <t>Evergreen surface characteristics</t>
   </si>
   <si>
-    <t>Decidious surface characteristics</t>
-  </si>
-  <si>
     <t>Grass surface characteristics</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>ESTM Coefficients (codes will be added to the final output according to file input not what is selected in this tab)</t>
+  </si>
+  <si>
+    <t>Deciduous surface characteristics</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -570,7 +570,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -590,45 +590,45 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1">
+        <v>660</v>
+      </c>
+      <c r="F1">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>28</v>
       </c>
-      <c r="E1">
-        <v>660</v>
-      </c>
-      <c r="F1">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
+      <c r="C1" t="s">
+        <v>31</v>
       </c>
       <c r="D1">
         <v>1</v>
@@ -642,13 +642,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -677,46 +677,46 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>34</v>
       </c>
+      <c r="E1">
+        <v>661</v>
+      </c>
+      <c r="F1">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
       <c r="C1" t="s">
         <v>35</v>
-      </c>
-      <c r="E1">
-        <v>661</v>
-      </c>
-      <c r="F1">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
       </c>
       <c r="D1">
         <v>2</v>
@@ -730,13 +730,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -765,45 +765,45 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>39</v>
       </c>
+      <c r="E1">
+        <v>660</v>
+      </c>
+      <c r="F1">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
       <c r="C1" t="s">
         <v>40</v>
-      </c>
-      <c r="E1">
-        <v>660</v>
-      </c>
-      <c r="F1">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
       </c>
       <c r="D1">
         <v>1</v>
@@ -817,13 +817,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -856,13 +856,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>43</v>
+      <c r="C1" t="s">
+        <v>42</v>
       </c>
       <c r="D1">
         <v>1</v>
@@ -876,13 +876,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -903,7 +903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -911,13 +911,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>48</v>
-      </c>
-      <c r="C1" t="s">
-        <v>49</v>
       </c>
       <c r="F1">
         <v>81</v>
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,7 +1051,7 @@
         <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D1">
         <v>4</v>
@@ -1086,7 +1086,7 @@
         <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1">
         <v>5</v>
@@ -1107,7 +1107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -1121,7 +1121,7 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1">
         <v>6</v>
@@ -1153,46 +1153,46 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1">
+        <v>661</v>
+      </c>
+      <c r="F1">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>24</v>
       </c>
-      <c r="E1">
-        <v>661</v>
-      </c>
-      <c r="F1">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
       <c r="E1">
         <v>100</v>
       </c>

--- a/SUEWSPrepare/Input/SUEWS_init.xlsx
+++ b/SUEWSPrepare/Input/SUEWS_init.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="867" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Example DO NOT CHANGE POSITION" sheetId="1" r:id="rId1"/>
     <sheet name="Paved" sheetId="2" r:id="rId2"/>
     <sheet name="Building" sheetId="3" r:id="rId3"/>
     <sheet name="Evergreen" sheetId="4" r:id="rId4"/>
-    <sheet name="Deciduous" sheetId="5" r:id="rId5"/>
+    <sheet name="Decidious" sheetId="5" r:id="rId5"/>
     <sheet name="Grass" sheetId="6" r:id="rId6"/>
     <sheet name="Bare Soil" sheetId="7" r:id="rId7"/>
     <sheet name="Water" sheetId="8" r:id="rId8"/>
@@ -83,6 +83,9 @@
     <t>Evergreen surface characteristics</t>
   </si>
   <si>
+    <t>Decidious surface characteristics</t>
+  </si>
+  <si>
     <t>Grass surface characteristics</t>
   </si>
   <si>
@@ -177,9 +180,6 @@
   </si>
   <si>
     <t>ESTM Coefficients (codes will be added to the final output according to file input not what is selected in this tab)</t>
-  </si>
-  <si>
-    <t>Deciduous surface characteristics</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -570,7 +570,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -583,26 +583,26 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
-        <v>27</v>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
       </c>
       <c r="E1">
         <v>660</v>
       </c>
       <c r="F1">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -615,20 +615,20 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
-        <v>31</v>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
       </c>
       <c r="D1">
         <v>1</v>
@@ -637,18 +637,18 @@
         <v>660</v>
       </c>
       <c r="F1">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -657,7 +657,7 @@
         <v>660</v>
       </c>
       <c r="F2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -670,26 +670,26 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" t="s">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" t="s">
         <v>34</v>
       </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
       <c r="E1">
         <v>661</v>
       </c>
       <c r="F1">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -703,20 +703,20 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
-        <v>35</v>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
       </c>
       <c r="D1">
         <v>2</v>
@@ -725,18 +725,18 @@
         <v>661</v>
       </c>
       <c r="F1">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -745,7 +745,7 @@
         <v>662</v>
       </c>
       <c r="F2">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -758,26 +758,26 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" t="s">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" t="s">
         <v>39</v>
       </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
       <c r="E1">
         <v>660</v>
       </c>
       <c r="F1">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -790,20 +790,20 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
-        <v>40</v>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
       </c>
       <c r="D1">
         <v>1</v>
@@ -812,18 +812,18 @@
         <v>660</v>
       </c>
       <c r="F1">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -832,7 +832,7 @@
         <v>660</v>
       </c>
       <c r="F2">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -845,7 +845,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,13 +856,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
-        <v>42</v>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
       </c>
       <c r="D1">
         <v>1</v>
@@ -871,18 +871,18 @@
         <v>660</v>
       </c>
       <c r="F1">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -891,7 +891,7 @@
         <v>660</v>
       </c>
       <c r="F2">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -903,24 +903,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" t="s">
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" t="s">
         <v>48</v>
       </c>
-      <c r="F1">
-        <v>81</v>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -933,7 +933,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,7 +955,7 @@
         <v>661</v>
       </c>
       <c r="F1">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -968,7 +968,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,7 +990,7 @@
         <v>662</v>
       </c>
       <c r="F1">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,7 +1025,7 @@
         <v>661</v>
       </c>
       <c r="F1">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,7 +1051,7 @@
         <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D1">
         <v>4</v>
@@ -1060,7 +1060,7 @@
         <v>662</v>
       </c>
       <c r="F1">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,7 +1086,7 @@
         <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1">
         <v>5</v>
@@ -1095,7 +1095,7 @@
         <v>663</v>
       </c>
       <c r="F1">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1107,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,7 +1121,7 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1">
         <v>6</v>
@@ -1130,7 +1130,7 @@
         <v>663</v>
       </c>
       <c r="F1">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1143,7 +1143,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,19 +1153,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" t="s">
         <v>23</v>
       </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
       <c r="E1">
         <v>661</v>
       </c>
       <c r="F1">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1178,26 +1178,26 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" t="s">
         <v>26</v>
       </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
       <c r="E1">
         <v>100</v>
       </c>
       <c r="F1">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/SUEWSPrepare/Input/SUEWS_init.xlsx
+++ b/SUEWSPrepare/Input/SUEWS_init.xlsx
@@ -583,39 +583,39 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1">
+        <v>660</v>
+      </c>
+      <c r="F1">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1">
-        <v>660</v>
-      </c>
-      <c r="F1">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,7 +637,7 @@
         <v>660</v>
       </c>
       <c r="F1">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -657,7 +657,7 @@
         <v>660</v>
       </c>
       <c r="F2">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -670,40 +670,40 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1">
+        <v>661</v>
+      </c>
+      <c r="F1">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1">
-        <v>661</v>
-      </c>
-      <c r="F1">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,7 +725,7 @@
         <v>661</v>
       </c>
       <c r="F1">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -745,7 +745,7 @@
         <v>662</v>
       </c>
       <c r="F2">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -758,39 +758,39 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1">
+        <v>660</v>
+      </c>
+      <c r="F1">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1">
-        <v>660</v>
-      </c>
-      <c r="F1">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,7 +812,7 @@
         <v>660</v>
       </c>
       <c r="F1">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -832,7 +832,7 @@
         <v>660</v>
       </c>
       <c r="F2">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -845,7 +845,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,7 +871,7 @@
         <v>660</v>
       </c>
       <c r="F1">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -891,7 +891,7 @@
         <v>660</v>
       </c>
       <c r="F2">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -904,7 +904,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,7 +920,7 @@
         <v>49</v>
       </c>
       <c r="F1">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -933,7 +933,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,7 +955,7 @@
         <v>661</v>
       </c>
       <c r="F1">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -968,7 +968,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,7 +990,7 @@
         <v>662</v>
       </c>
       <c r="F1">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,7 +1025,7 @@
         <v>661</v>
       </c>
       <c r="F1">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,7 +1060,7 @@
         <v>662</v>
       </c>
       <c r="F1">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,7 +1095,7 @@
         <v>663</v>
       </c>
       <c r="F1">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1108,7 +1108,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,7 +1130,7 @@
         <v>663</v>
       </c>
       <c r="F1">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1143,7 +1143,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,7 +1165,7 @@
         <v>661</v>
       </c>
       <c r="F1">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1178,7 +1178,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,10 +1194,10 @@
         <v>27</v>
       </c>
       <c r="E1">
-        <v>100</v>
-      </c>
-      <c r="F1">
-        <v>45</v>
+        <v>200</v>
+      </c>
+      <c r="F1">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/SUEWSPrepare/Input/SUEWS_init.xlsx
+++ b/SUEWSPrepare/Input/SUEWS_init.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="867" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="867" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Example DO NOT CHANGE POSITION" sheetId="1" r:id="rId1"/>
@@ -19,18 +19,17 @@
     <sheet name="Snow" sheetId="10" r:id="rId10"/>
     <sheet name="Snow clearing" sheetId="16" r:id="rId11"/>
     <sheet name="Anthropogenic" sheetId="11" r:id="rId12"/>
-    <sheet name="Energy" sheetId="12" r:id="rId13"/>
-    <sheet name="Irrigation" sheetId="13" r:id="rId14"/>
-    <sheet name="Water Use (Manual)" sheetId="14" r:id="rId15"/>
-    <sheet name="Water Use (Automatic)" sheetId="15" r:id="rId16"/>
-    <sheet name="ESTM Coefficients" sheetId="17" r:id="rId17"/>
+    <sheet name="Irrigation" sheetId="13" r:id="rId13"/>
+    <sheet name="Water Use (Manual)" sheetId="14" r:id="rId14"/>
+    <sheet name="Water Use (Automatic)" sheetId="15" r:id="rId15"/>
+    <sheet name="ESTM Coefficients" sheetId="17" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>First widget title</t>
   </si>
@@ -138,12 +137,6 @@
   </si>
   <si>
     <t>Modelling anthropogenic heat flux</t>
-  </si>
-  <si>
-    <t>Energy use profile (Weekdays)</t>
-  </si>
-  <si>
-    <t>Energy use profile (Weekends)</t>
   </si>
   <si>
     <t>SUEWS_Irrigation</t>
@@ -521,7 +514,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,6 +524,7 @@
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="4" max="4" width="41.140625" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -550,7 +544,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -570,7 +564,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -583,10 +577,17 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -602,7 +603,7 @@
         <v>660</v>
       </c>
       <c r="F1">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -615,10 +616,18 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -637,7 +646,7 @@
         <v>660</v>
       </c>
       <c r="F1">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -657,7 +666,7 @@
         <v>660</v>
       </c>
       <c r="F2">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -670,10 +679,17 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -689,7 +705,7 @@
         <v>661</v>
       </c>
       <c r="F1">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -700,6 +716,38 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1">
+        <v>660</v>
+      </c>
+      <c r="F1">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -707,6 +755,14 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -716,16 +772,16 @@
         <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D1">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>661</v>
-      </c>
-      <c r="F1">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>660</v>
+      </c>
+      <c r="F1">
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -736,94 +792,7 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>662</v>
-      </c>
-      <c r="F2">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s">
         <v>40</v>
-      </c>
-      <c r="E1">
-        <v>660</v>
-      </c>
-      <c r="F1">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>660</v>
-      </c>
-      <c r="F1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -832,20 +801,20 @@
         <v>660</v>
       </c>
       <c r="F2">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,7 +831,7 @@
         <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1">
         <v>1</v>
@@ -871,7 +840,7 @@
         <v>660</v>
       </c>
       <c r="F1">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -882,7 +851,7 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -891,36 +860,42 @@
         <v>660</v>
       </c>
       <c r="F2">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="103" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1">
-        <v>87</v>
+      <c r="F1">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -937,6 +912,14 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -955,7 +938,7 @@
         <v>661</v>
       </c>
       <c r="F1">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -968,10 +951,18 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -990,7 +981,7 @@
         <v>662</v>
       </c>
       <c r="F1">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1025,7 +1016,7 @@
         <v>661</v>
       </c>
       <c r="F1">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1042,6 +1033,11 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1060,7 +1056,7 @@
         <v>662</v>
       </c>
       <c r="F1">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1095,7 +1091,7 @@
         <v>663</v>
       </c>
       <c r="F1">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1130,7 +1126,7 @@
         <v>663</v>
       </c>
       <c r="F1">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1143,7 +1139,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,7 +1161,7 @@
         <v>661</v>
       </c>
       <c r="F1">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1197,7 +1193,7 @@
         <v>200</v>
       </c>
       <c r="F1">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/SUEWSPrepare/Input/SUEWS_init.xlsx
+++ b/SUEWSPrepare/Input/SUEWS_init.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="867" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="867" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Example DO NOT CHANGE POSITION" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Water Use (Automatic)" sheetId="15" r:id="rId15"/>
     <sheet name="ESTM Coefficients" sheetId="17" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
@@ -130,15 +130,6 @@
     <t>Snow clearing profile (Weekdays)</t>
   </si>
   <si>
-    <t>SUEWS_AnthropogenicHeat</t>
-  </si>
-  <si>
-    <t>SUEWS_AnthropogenicHeat.txt</t>
-  </si>
-  <si>
-    <t>Modelling anthropogenic heat flux</t>
-  </si>
-  <si>
     <t>SUEWS_Irrigation</t>
   </si>
   <si>
@@ -174,11 +165,20 @@
   <si>
     <t>ESTM Coefficients (codes will be added to the final output according to file input not what is selected in this tab)</t>
   </si>
+  <si>
+    <t>SUEWS_AnthropogenicEmission</t>
+  </si>
+  <si>
+    <t>SUEWS_AnthropogenicEmission.txt</t>
+  </si>
+  <si>
+    <t>Modelling anthropogenic heat flux and emissions</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -219,6 +219,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -267,7 +270,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -302,7 +305,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -513,7 +516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -544,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -564,7 +567,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -678,14 +681,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
     <col min="3" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
@@ -693,6 +696,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1">
+        <v>661</v>
+      </c>
+      <c r="F1">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>33</v>
       </c>
       <c r="B1" t="s">
@@ -700,39 +736,6 @@
       </c>
       <c r="C1" t="s">
         <v>35</v>
-      </c>
-      <c r="E1">
-        <v>661</v>
-      </c>
-      <c r="F1">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" t="s">
-        <v>38</v>
       </c>
       <c r="E1">
         <v>660</v>
@@ -772,7 +775,7 @@
         <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D1">
         <v>1</v>
@@ -792,7 +795,7 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -831,7 +834,7 @@
         <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D1">
         <v>1</v>
@@ -851,7 +854,7 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -872,7 +875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
@@ -886,13 +889,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
       </c>
       <c r="F1">
         <v>85</v>
@@ -1144,6 +1147,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1178,6 +1183,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/SUEWSPrepare/Input/SUEWS_init.xlsx
+++ b/SUEWSPrepare/Input/SUEWS_init.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="867" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="867" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Example DO NOT CHANGE POSITION" sheetId="1" r:id="rId1"/>
@@ -516,21 +516,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="41.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="41.109375" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -550,7 +550,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -580,19 +580,19 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -606,7 +606,7 @@
         <v>660</v>
       </c>
       <c r="F1">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -619,20 +619,20 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -649,10 +649,10 @@
         <v>660</v>
       </c>
       <c r="F1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -669,7 +669,7 @@
         <v>660</v>
       </c>
       <c r="F2">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -681,20 +681,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5546875" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -708,7 +708,7 @@
         <v>661</v>
       </c>
       <c r="F1">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -722,12 +722,12 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -741,7 +741,7 @@
         <v>660</v>
       </c>
       <c r="F1">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -754,20 +754,20 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -784,10 +784,10 @@
         <v>660</v>
       </c>
       <c r="F1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -804,7 +804,7 @@
         <v>660</v>
       </c>
       <c r="F2">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -817,16 +817,16 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -843,10 +843,10 @@
         <v>660</v>
       </c>
       <c r="F1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -863,7 +863,7 @@
         <v>660</v>
       </c>
       <c r="F2">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -876,18 +876,18 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="103" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -914,17 +914,17 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -941,7 +941,7 @@
         <v>661</v>
       </c>
       <c r="F1">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -954,20 +954,20 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -984,7 +984,7 @@
         <v>662</v>
       </c>
       <c r="F1">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -996,13 +996,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>661</v>
       </c>
       <c r="F1">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1035,14 +1035,14 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>662</v>
       </c>
       <c r="F1">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1075,9 +1075,9 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>663</v>
       </c>
       <c r="F1">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1110,9 +1110,9 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>663</v>
       </c>
       <c r="F1">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1142,17 +1142,17 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>661</v>
       </c>
       <c r="F1">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1179,15 +1179,15 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>200</v>
       </c>
       <c r="F1">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
